--- a/resource/excel/server/DB.xlsx
+++ b/resource/excel/server/DB.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12690"/>
+    <workbookView windowWidth="24600" windowHeight="11315"/>
   </bookViews>
   <sheets>
     <sheet name="property" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
   <si>
     <t>Id</t>
   </si>
@@ -73,7 +73,7 @@
     <t>MysqlPlayerDb_1</t>
   </si>
   <si>
-    <t>1.14.123.62</t>
+    <t>127.0.0.1</t>
   </si>
   <si>
     <t>pwnsky_squick</t>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
   </si>
   <si>
     <t>MongoPlayerDb_1</t>
@@ -848,7 +851,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -892,12 +895,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1231,18 +1228,18 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="24.6666666666667" customWidth="1"/>
-    <col min="2" max="2" width="22.125" customWidth="1"/>
-    <col min="3" max="3" width="35.625" customWidth="1"/>
+    <col min="2" max="2" width="22.1296296296296" customWidth="1"/>
+    <col min="3" max="3" width="35.6296296296296" customWidth="1"/>
     <col min="4" max="4" width="24" customWidth="1"/>
     <col min="5" max="5" width="33.6666666666667" customWidth="1"/>
-    <col min="6" max="6" width="24.5583333333333" customWidth="1"/>
-    <col min="7" max="7" width="32.5583333333333" customWidth="1"/>
+    <col min="6" max="6" width="24.5555555555556" customWidth="1"/>
+    <col min="7" max="7" width="32.5555555555556" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1452,7 +1449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" ht="14.25" spans="1:7">
+    <row r="10" ht="15.15" spans="1:7">
       <c r="A10" s="12" t="s">
         <v>16</v>
       </c>
@@ -1469,68 +1466,68 @@
       <c r="A11" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="16">
+      <c r="B11" s="15">
         <v>1</v>
       </c>
-      <c r="C11" s="17">
+      <c r="C11" s="15">
         <v>1</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="17">
+      <c r="F11" s="15">
         <v>10100</v>
       </c>
-      <c r="G11" s="19" t="s">
+      <c r="G11" s="17" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="18" t="s">
+      <c r="C12" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="E12" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="F12" s="19">
+      <c r="F12" s="17">
         <v>10200</v>
       </c>
-      <c r="G12" s="19" t="s">
+      <c r="G12" s="17" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B13" s="15">
         <v>3</v>
       </c>
       <c r="C13" s="15">
-        <v>3</v>
-      </c>
-      <c r="D13" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="18" t="s">
+      <c r="E13" s="16" t="s">
         <v>19</v>
       </c>
       <c r="F13" s="15">
         <v>10300</v>
       </c>
-      <c r="G13" s="19" t="s">
+      <c r="G13" s="17" t="s">
         <v>20</v>
       </c>
     </row>

--- a/resource/excel/server/DB.xlsx
+++ b/resource/excel/server/DB.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24600" windowHeight="11315"/>
+    <workbookView windowWidth="28800" windowHeight="12690"/>
   </bookViews>
   <sheets>
     <sheet name="property" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="24">
   <si>
     <t>Id</t>
   </si>
@@ -79,16 +79,13 @@
     <t>pwnsky_squick</t>
   </si>
   <si>
+    <t>MongoPlayerDb_1</t>
+  </si>
+  <si>
     <t>RedisGameDb_1</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>3</t>
-  </si>
-  <si>
-    <t>MongoPlayerDb_1</t>
   </si>
 </sst>
 </file>
@@ -1228,18 +1225,18 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="24.6666666666667" customWidth="1"/>
-    <col min="2" max="2" width="22.1296296296296" customWidth="1"/>
-    <col min="3" max="3" width="35.6296296296296" customWidth="1"/>
+    <col min="2" max="2" width="22.1333333333333" customWidth="1"/>
+    <col min="3" max="3" width="35.6333333333333" customWidth="1"/>
     <col min="4" max="4" width="24" customWidth="1"/>
     <col min="5" max="5" width="33.6666666666667" customWidth="1"/>
-    <col min="6" max="6" width="24.5555555555556" customWidth="1"/>
-    <col min="7" max="7" width="32.5555555555556" customWidth="1"/>
+    <col min="6" max="6" width="24.5583333333333" customWidth="1"/>
+    <col min="7" max="7" width="32.5583333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1449,7 +1446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" ht="15.15" spans="1:7">
+    <row r="10" ht="14.25" spans="1:7">
       <c r="A10" s="12" t="s">
         <v>16</v>
       </c>
@@ -1479,53 +1476,53 @@
         <v>19</v>
       </c>
       <c r="F11" s="15">
-        <v>10100</v>
+        <v>10400</v>
       </c>
       <c r="G11" s="17" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>23</v>
+      <c r="B12" s="15">
+        <v>2</v>
+      </c>
+      <c r="C12" s="15">
+        <v>2</v>
       </c>
       <c r="D12" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="17" t="s">
+      <c r="E12" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="F12" s="17">
-        <v>10200</v>
+      <c r="F12" s="15">
+        <v>10410</v>
       </c>
       <c r="G12" s="17" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="15">
-        <v>3</v>
-      </c>
-      <c r="C13" s="15">
-        <v>2</v>
+      <c r="A13" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>23</v>
       </c>
       <c r="D13" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="E13" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="F13" s="15">
-        <v>10300</v>
+      <c r="F13" s="17">
+        <v>10420</v>
       </c>
       <c r="G13" s="17" t="s">
         <v>20</v>

--- a/resource/excel/server/DB.xlsx
+++ b/resource/excel/server/DB.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="31">
   <si>
     <t>Id</t>
   </si>
@@ -34,9 +34,15 @@
     <t>Port</t>
   </si>
   <si>
+    <t>User</t>
+  </si>
+  <si>
     <t>Auth</t>
   </si>
   <si>
+    <t>Database</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -73,19 +79,34 @@
     <t>MysqlPlayerDb_1</t>
   </si>
   <si>
-    <t>127.0.0.1</t>
+    <t>1.14.123.62</t>
+  </si>
+  <si>
+    <t>root</t>
   </si>
   <si>
     <t>pwnsky_squick</t>
   </si>
   <si>
+    <t>player</t>
+  </si>
+  <si>
     <t>MongoPlayerDb_1</t>
   </si>
   <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>game</t>
+  </si>
+  <si>
     <t>RedisGameDb_1</t>
   </si>
   <si>
     <t>3</t>
+  </si>
+  <si>
+    <t>squick</t>
   </si>
 </sst>
 </file>
@@ -1222,24 +1243,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="24.6666666666667" customWidth="1"/>
     <col min="2" max="2" width="22.1333333333333" customWidth="1"/>
     <col min="3" max="3" width="35.6333333333333" customWidth="1"/>
     <col min="4" max="4" width="24" customWidth="1"/>
     <col min="5" max="5" width="33.6666666666667" customWidth="1"/>
-    <col min="6" max="6" width="24.5583333333333" customWidth="1"/>
-    <col min="7" max="7" width="32.5583333333333" customWidth="1"/>
+    <col min="6" max="7" width="24.5583333333333" customWidth="1"/>
+    <col min="8" max="8" width="32.5583333333333" customWidth="1"/>
+    <col min="9" max="9" width="26.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1258,36 +1280,48 @@
       <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:9">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:9">
       <c r="A3" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B3" s="8">
         <v>1</v>
@@ -1307,10 +1341,16 @@
       <c r="G3" s="9">
         <v>1</v>
       </c>
+      <c r="H3" s="9">
+        <v>1</v>
+      </c>
+      <c r="I3" s="9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:9">
       <c r="A4" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B4" s="8">
         <v>0</v>
@@ -1330,10 +1370,16 @@
       <c r="G4" s="9">
         <v>0</v>
       </c>
+      <c r="H4" s="9">
+        <v>0</v>
+      </c>
+      <c r="I4" s="9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:9">
       <c r="A5" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B5" s="8">
         <v>0</v>
@@ -1353,10 +1399,16 @@
       <c r="G5" s="9">
         <v>0</v>
       </c>
+      <c r="H5" s="9">
+        <v>0</v>
+      </c>
+      <c r="I5" s="9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:9">
       <c r="A6" s="5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B6" s="8">
         <v>0</v>
@@ -1376,10 +1428,16 @@
       <c r="G6" s="8">
         <v>0</v>
       </c>
+      <c r="H6" s="8">
+        <v>0</v>
+      </c>
+      <c r="I6" s="8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:9">
       <c r="A7" s="10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B7" s="11">
         <v>0</v>
@@ -1399,10 +1457,16 @@
       <c r="G7" s="11">
         <v>0</v>
       </c>
+      <c r="H7" s="11">
+        <v>0</v>
+      </c>
+      <c r="I7" s="11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:9">
       <c r="A8" s="10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B8" s="11">
         <v>0</v>
@@ -1422,10 +1486,16 @@
       <c r="G8" s="11">
         <v>0</v>
       </c>
+      <c r="H8" s="11">
+        <v>0</v>
+      </c>
+      <c r="I8" s="11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:9">
       <c r="A9" s="10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B9" s="11">
         <v>0</v>
@@ -1445,23 +1515,31 @@
       <c r="G9" s="11">
         <v>0</v>
       </c>
+      <c r="H9" s="11">
+        <v>0</v>
+      </c>
+      <c r="I9" s="11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" ht="14.25" spans="1:7">
+    <row r="10" ht="14.25" spans="1:9">
       <c r="A10" s="12" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B10" s="13"/>
       <c r="C10" s="9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
       <c r="F10" s="14"/>
       <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:9">
       <c r="A11" s="15" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B11" s="15">
         <v>1</v>
@@ -1470,21 +1548,27 @@
         <v>1</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F11" s="15">
         <v>10400</v>
       </c>
-      <c r="G11" s="17" t="s">
-        <v>20</v>
+      <c r="G11" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" s="15" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:9">
       <c r="A12" s="15" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B12" s="15">
         <v>2</v>
@@ -1493,44 +1577,56 @@
         <v>2</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F12" s="15">
         <v>10410</v>
       </c>
-      <c r="G12" s="17" t="s">
-        <v>20</v>
+      <c r="G12" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12" s="15" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:9">
       <c r="A13" s="16" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F13" s="17">
         <v>10420</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="H13" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="I13" s="17" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6 D6 F6:G6 B7:B9 D7:D9 F7:G9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6 D6 F6 G6 H6 I6 B7:B9 D7:D9 F7:F9 G7:G9 H7:H9 I7:I9">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6:A9"/>
